--- a/biology/Botanique/La_Mancha_(DO)/La_Mancha_(DO).xlsx
+++ b/biology/Botanique/La_Mancha_(DO)/La_Mancha_(DO).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Mancha est une dénomination d'origine (équivalent espagnol de l'appellation d'origine contrôlée, AOC) pour les vins originaires d'une vaste zone viticole qui s'étend sur une grande partie des provinces de Tolède, d'Albacete, de Cuenca et de Ciudad Real, dans la communauté autonome espagnole de Castille-La Manche.
@@ -513,7 +525,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'origine connue du vin de La Mancha date du XIIe siècle au plus fort de la Reconquista, bien que certains prétendent qu'elle remonte à l'époque romaine. Aux XVIe et  XVIIe siècles, les vins de cette région approvisionnaient la cour en raison de sa proximité avec Madrid, et le vin de La Mancha est fréquemment mentionné dans le livre le plus universel écrit en langue espagnole, Don Quichotte de La Mancha. 
 Au XIXe siècle, l'extension de la culture s'est intensifiée notamment pour la production du Marquis de Mudela, appelé le « Colomb de la Mancha », Francisco de las Rivas y Ubieta (es), pour avoir eu le mérite d'avoir : 
@@ -548,7 +562,9 @@
           <t>Environnement</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Situé au cœur du sous-plateau sud, le terrain n'est pas très accidenté et l'altitude est d'environ 700 mètres. Le sol est calcaire, souvent de couleur rougeâtre. Le climat est continental avec une température moyenne de 14 °C. Les étés sont très chauds, dépassant même 40 °C, et les hivers sont longs et froids, avec des températures allant jusqu'à −15 °C. Les précipitations varient entre 300 et 400 mm.
 </t>
@@ -579,7 +595,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Rouges : vins de 11,5° à 13° d'alcool. Il y a les jeunes, les traditionnels, le roble (60 jours minimum de vieillissement en barrique de chêne), le crianza (6 mois minimum de vieillissement en barrique de chêne), le reserva (12 mois minimum de vieillissement en barrique de chêne) et le gran reserva (18 mois minimum de vieillissement en barrique de chêne).
 Rosés : vins de 10,5° à 13° d'alcool.
@@ -614,7 +632,9 @@
           <t>Cépages</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Blancs : airén, macabeo, chardonnay, sauvignon blanc, verdejo, muscat blanc à petits grains, pedro ximénez, parellada, torrontés, gewürztraminer, riesling et viognier.
 Rouges : tempranillo, grenache, moravia, cabernet sauvignon, syrah, merlot, petit verdot, graciano, malbec, cabernet franc et pinot noir.</t>
@@ -645,7 +665,9 @@
           <t>Millésimes[1]</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">
 1970 Très bon
